--- a/Semester4GameDevProject/Documentation/ProjectTimeline.xlsx
+++ b/Semester4GameDevProject/Documentation/ProjectTimeline.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Activity</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Create an input manager</t>
+  </si>
+  <si>
+    <t>Create an options menu</t>
   </si>
 </sst>
 </file>
@@ -3870,7 +3873,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>#N/A</c:v>
@@ -4580,7 +4583,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{63D42637-7B7D-4850-B9C6-3817C874378B}</c15:txfldGUID>
+                      <c15:txfldGUID>{A67D42EF-191F-4AF6-9EB5-4E4AD689B3DF}</c15:txfldGUID>
                       <c15:f>calcs!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4620,7 +4623,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A6B07819-4CD3-4AEC-AC69-890A83894664}</c15:txfldGUID>
+                      <c15:txfldGUID>{8A7F5171-D0A1-41A2-A285-56A29B8A660F}</c15:txfldGUID>
                       <c15:f>calcs!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4660,7 +4663,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{45BB3316-E744-4413-A6BB-55DB1407EE29}</c15:txfldGUID>
+                      <c15:txfldGUID>{A5385397-C0FD-4109-8EDD-B23F482960D2}</c15:txfldGUID>
                       <c15:f>calcs!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4700,7 +4703,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F9113B99-C043-46B5-885D-A25231886CBA}</c15:txfldGUID>
+                      <c15:txfldGUID>{D51C377D-67D9-41CA-90C5-37E411C56F59}</c15:txfldGUID>
                       <c15:f>calcs!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4740,7 +4743,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9976CEB2-3841-4849-8726-3BA80A2A2573}</c15:txfldGUID>
+                      <c15:txfldGUID>{C2C4185C-5518-464A-B244-A427F02AD08B}</c15:txfldGUID>
                       <c15:f>calcs!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4780,7 +4783,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{760895DC-E6DF-4D2D-B06E-E9DF459C0751}</c15:txfldGUID>
+                      <c15:txfldGUID>{10901AC2-AA3C-4425-BEF8-C4C86F04AF2F}</c15:txfldGUID>
                       <c15:f>calcs!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4820,7 +4823,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2701B268-2094-4BC4-920E-4521FC4D1B6A}</c15:txfldGUID>
+                      <c15:txfldGUID>{A1C38C44-53E7-4498-AEE0-552AB9028B0A}</c15:txfldGUID>
                       <c15:f>calcs!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4860,7 +4863,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6AE1D56C-3D49-44A9-A947-72706CE3BCC9}</c15:txfldGUID>
+                      <c15:txfldGUID>{DE5B3E3B-A978-455B-8D04-60988C351B44}</c15:txfldGUID>
                       <c15:f>calcs!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4900,7 +4903,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{882EBBF5-5BA5-4381-B866-4A79F7BA3F5F}</c15:txfldGUID>
+                      <c15:txfldGUID>{809C1E40-827D-49F5-92EC-D80D6A562075}</c15:txfldGUID>
                       <c15:f>calcs!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4940,7 +4943,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5C7051EF-8B88-429D-AD64-7D0FE08003F5}</c15:txfldGUID>
+                      <c15:txfldGUID>{5910DD50-39C2-4D0C-BAA0-C8A3270376E5}</c15:txfldGUID>
                       <c15:f>calcs!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -4980,7 +4983,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DEBB9038-4414-40BD-BAAA-CD25B133D6AF}</c15:txfldGUID>
+                      <c15:txfldGUID>{07A33DD2-63EF-4144-AEFA-941FD2107BCF}</c15:txfldGUID>
                       <c15:f>calcs!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5020,7 +5023,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{63ADFAED-F312-44CF-B397-00FB2CC7BE24}</c15:txfldGUID>
+                      <c15:txfldGUID>{B3D1F7E4-37A2-4B0F-9FFC-1EFFFAD5C3A7}</c15:txfldGUID>
                       <c15:f>calcs!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5060,7 +5063,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F5A5677C-5148-4759-A238-0A081C3CCD5C}</c15:txfldGUID>
+                      <c15:txfldGUID>{96DFD638-5D7F-4E1F-81F5-E307897F8095}</c15:txfldGUID>
                       <c15:f>calcs!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5100,7 +5103,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8262F6E4-2B6A-41D3-B555-CDB0F19BABA9}</c15:txfldGUID>
+                      <c15:txfldGUID>{6180CD8F-865A-4361-981E-4CCEDFF273DB}</c15:txfldGUID>
                       <c15:f>calcs!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5140,7 +5143,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8EA602BA-AFE2-427D-8C06-EDD1028AA570}</c15:txfldGUID>
+                      <c15:txfldGUID>{4C4D106B-3A26-4F83-BA56-C39DE0514F69}</c15:txfldGUID>
                       <c15:f>calcs!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5180,7 +5183,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D0F6F8CD-B63A-4176-902F-6FB64794F290}</c15:txfldGUID>
+                      <c15:txfldGUID>{EECC428E-52D8-425D-A981-E91A44485AD5}</c15:txfldGUID>
                       <c15:f>calcs!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5220,7 +5223,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A05425B0-FD8B-4A45-A983-65EDAA05B49A}</c15:txfldGUID>
+                      <c15:txfldGUID>{77729904-C62B-4699-9BEA-F8758C0DF676}</c15:txfldGUID>
                       <c15:f>calcs!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5260,7 +5263,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4A5864CF-F567-42A3-9792-D60B6C9FDE17}</c15:txfldGUID>
+                      <c15:txfldGUID>{D3E1830B-0823-4455-87EC-D3888C8D8088}</c15:txfldGUID>
                       <c15:f>calcs!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5300,7 +5303,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8AE14422-0AF7-43F9-AE63-E69DA185BC01}</c15:txfldGUID>
+                      <c15:txfldGUID>{94A68803-77B9-41F6-BBC2-5AA677E8D8E4}</c15:txfldGUID>
                       <c15:f>calcs!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5340,7 +5343,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{31769272-1600-4673-B125-5ED4AB432DBD}</c15:txfldGUID>
+                      <c15:txfldGUID>{8FB513BC-08F5-46D1-99B9-2EAC7122746D}</c15:txfldGUID>
                       <c15:f>calcs!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5380,7 +5383,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{87850210-4347-475D-A107-E67E786B3E39}</c15:txfldGUID>
+                      <c15:txfldGUID>{F4584886-C520-4E77-BAE4-D982552868A0}</c15:txfldGUID>
                       <c15:f>calcs!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5420,7 +5423,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8E74F21A-CD72-493E-9934-1314BBBC30AC}</c15:txfldGUID>
+                      <c15:txfldGUID>{887D6296-1B6A-41E3-94B7-BE23EF23EB4A}</c15:txfldGUID>
                       <c15:f>calcs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5460,7 +5463,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A0221872-54F4-4906-B99B-512D1B70EC99}</c15:txfldGUID>
+                      <c15:txfldGUID>{015BB0D2-7EC6-4F60-8C78-91FDE022AE9A}</c15:txfldGUID>
                       <c15:f>calcs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5500,7 +5503,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ADE7189E-9188-4EAA-8FA7-4F20799AF396}</c15:txfldGUID>
+                      <c15:txfldGUID>{6863BAC6-2A99-40EE-857C-69D50951A49B}</c15:txfldGUID>
                       <c15:f>calcs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5540,7 +5543,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{60137304-E69A-4D1A-B4DC-033D218CCF7A}</c15:txfldGUID>
+                      <c15:txfldGUID>{7A6B570C-78E9-403A-9648-3C71382BCA77}</c15:txfldGUID>
                       <c15:f>calcs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5580,7 +5583,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{64551F6B-ABBD-4515-BD9D-1269968558FA}</c15:txfldGUID>
+                      <c15:txfldGUID>{908216E1-64FD-4120-A466-EEEF555C8395}</c15:txfldGUID>
                       <c15:f>calcs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5620,7 +5623,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B91AEA99-34D8-475C-A790-54194AB54198}</c15:txfldGUID>
+                      <c15:txfldGUID>{48B8C25E-9AF5-4858-8C17-F079256FC730}</c15:txfldGUID>
                       <c15:f>calcs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5660,7 +5663,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0BC48B7C-E0A6-4FFE-812A-3885848F96C1}</c15:txfldGUID>
+                      <c15:txfldGUID>{510D776C-E152-48E1-851D-C5210E7E9905}</c15:txfldGUID>
                       <c15:f>calcs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5700,7 +5703,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D66AF630-8EDD-448C-9390-44BF52CF179E}</c15:txfldGUID>
+                      <c15:txfldGUID>{7F716F00-2C3E-4C68-A2F7-AD6238218018}</c15:txfldGUID>
                       <c15:f>calcs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5740,7 +5743,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D0A24673-D8A3-477D-AA90-A27DCB4D1C23}</c15:txfldGUID>
+                      <c15:txfldGUID>{044415AE-14D8-4AB6-A63E-D731464A3F4C}</c15:txfldGUID>
                       <c15:f>calcs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5932,7 +5935,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{94AF2896-5530-4A61-8529-0F81750A94F0}</c15:txfldGUID>
+                      <c15:txfldGUID>{1A6A4AEA-07B4-42D9-9F80-5FDEE1EC2C19}</c15:txfldGUID>
                       <c15:f>calcs!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -5972,7 +5975,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{932FD037-59AC-467E-B533-079049001190}</c15:txfldGUID>
+                      <c15:txfldGUID>{ABD147C9-1834-4DC1-A784-4557EA2B541E}</c15:txfldGUID>
                       <c15:f>calcs!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6012,7 +6015,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9BE3DD56-1AB5-4CF5-BFFE-EC2F53D63E7C}</c15:txfldGUID>
+                      <c15:txfldGUID>{543F1463-35CE-4A40-814C-E2F03B459036}</c15:txfldGUID>
                       <c15:f>calcs!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6052,7 +6055,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{84A1F418-C2A1-47E8-A6A2-64289109E6BD}</c15:txfldGUID>
+                      <c15:txfldGUID>{8C8B2E4A-C82C-437D-9268-010CC98DA133}</c15:txfldGUID>
                       <c15:f>calcs!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6092,7 +6095,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{08769418-41E6-4723-8FD1-F0F696237975}</c15:txfldGUID>
+                      <c15:txfldGUID>{B12FB83E-1CA2-41A6-863A-D743FEDF212E}</c15:txfldGUID>
                       <c15:f>calcs!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6132,7 +6135,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8FB3798F-FAF6-4142-BE04-EA5167F435CF}</c15:txfldGUID>
+                      <c15:txfldGUID>{4C8CEC11-F5C2-49CF-94DA-38B3B05734F5}</c15:txfldGUID>
                       <c15:f>calcs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6172,7 +6175,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B504C914-54E1-4AB5-99DF-AC78BD681BE2}</c15:txfldGUID>
+                      <c15:txfldGUID>{4EE30795-510A-4F6B-B034-27037375FA9A}</c15:txfldGUID>
                       <c15:f>calcs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6212,7 +6215,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{814C78B1-7AEB-4B7C-870B-B601496C70B3}</c15:txfldGUID>
+                      <c15:txfldGUID>{C36E2B20-624F-49B2-9029-EEDFF8085F58}</c15:txfldGUID>
                       <c15:f>calcs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6252,7 +6255,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0D6B449C-FF58-43DA-9ABE-58D399243905}</c15:txfldGUID>
+                      <c15:txfldGUID>{BDF9119B-E057-4DA2-8AFF-FD4E5F6A9687}</c15:txfldGUID>
                       <c15:f>calcs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6292,7 +6295,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{293DD59B-F347-4453-9610-6ECDFCA92E12}</c15:txfldGUID>
+                      <c15:txfldGUID>{49AB3AE0-2BC0-4E2A-9ACF-5C661D1604E6}</c15:txfldGUID>
                       <c15:f>calcs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6332,7 +6335,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{13775600-A259-464C-A351-EC202257B05B}</c15:txfldGUID>
+                      <c15:txfldGUID>{517E5A53-6C99-4A52-83DC-97A30C3BF0ED}</c15:txfldGUID>
                       <c15:f>calcs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6372,7 +6375,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C94DA82C-79FF-48D0-B656-CA2C4DBD5DF6}</c15:txfldGUID>
+                      <c15:txfldGUID>{55287A0E-0D8D-4BAF-86B2-D30F5924468F}</c15:txfldGUID>
                       <c15:f>calcs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6412,7 +6415,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{14014509-83D0-4B63-A915-DDC5FC31D80D}</c15:txfldGUID>
+                      <c15:txfldGUID>{1C3B0434-1495-47CE-8198-D51927C79CCE}</c15:txfldGUID>
                       <c15:f>calcs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6452,7 +6455,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E1B09E70-6462-4CB1-890F-64D7168D16D7}</c15:txfldGUID>
+                      <c15:txfldGUID>{C35A165F-7F57-402A-B0A4-9E58D5E5DB44}</c15:txfldGUID>
                       <c15:f>calcs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6492,7 +6495,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7B79640B-A8B9-4CDB-823B-F1801770CAB0}</c15:txfldGUID>
+                      <c15:txfldGUID>{03BE2FB2-39BD-4FFC-B256-A01281299BD5}</c15:txfldGUID>
                       <c15:f>calcs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6532,7 +6535,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4A8D05F1-98AB-40E4-8126-D82EF71E7463}</c15:txfldGUID>
+                      <c15:txfldGUID>{C8665934-A392-4A15-98E2-4D8465619289}</c15:txfldGUID>
                       <c15:f>calcs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6572,7 +6575,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{75C3DDF6-999F-4372-BEBD-9EDC7ED32B81}</c15:txfldGUID>
+                      <c15:txfldGUID>{4F431C47-3BC9-4E19-8368-483BEE281BAC}</c15:txfldGUID>
                       <c15:f>calcs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6612,7 +6615,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DE23123B-4921-4C2E-B5BE-28978E582ED9}</c15:txfldGUID>
+                      <c15:txfldGUID>{70FC6043-B4C4-4980-A383-415B20E07905}</c15:txfldGUID>
                       <c15:f>calcs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6652,7 +6655,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EAA25489-57E2-42FA-9887-6BBC061491E5}</c15:txfldGUID>
+                      <c15:txfldGUID>{88C28DA7-A260-4EDE-A72C-B392EE67341D}</c15:txfldGUID>
                       <c15:f>calcs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6692,7 +6695,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BDED3D6B-9244-4096-8BCE-D8BDD1DB50D7}</c15:txfldGUID>
+                      <c15:txfldGUID>{82E5320A-6D6B-4177-897C-17D2F52206C4}</c15:txfldGUID>
                       <c15:f>calcs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6732,7 +6735,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{07080E10-ACF2-47F7-8708-D599033E3631}</c15:txfldGUID>
+                      <c15:txfldGUID>{333DBD46-7978-4A02-ADDF-9AFFBD326ACA}</c15:txfldGUID>
                       <c15:f>calcs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6772,7 +6775,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E1FF54A6-95BF-4829-9F95-070A00336B42}</c15:txfldGUID>
+                      <c15:txfldGUID>{D9D91632-D2B4-43AE-9209-DA9DB1C0386E}</c15:txfldGUID>
                       <c15:f>calcs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6812,7 +6815,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{42EB5354-9E7E-4391-830F-B2DA1764040D}</c15:txfldGUID>
+                      <c15:txfldGUID>{14104CFA-DC26-4313-9C3B-C305CCAD707C}</c15:txfldGUID>
                       <c15:f>calcs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6852,7 +6855,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{66768C2A-6F96-4F4C-ACF9-7F2D8E5D0A9D}</c15:txfldGUID>
+                      <c15:txfldGUID>{7591EC39-A935-4A93-BB36-A5E88E7410DC}</c15:txfldGUID>
                       <c15:f>calcs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6892,7 +6895,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B682F636-7569-4D62-B301-5DEF9F6BCA9A}</c15:txfldGUID>
+                      <c15:txfldGUID>{284C74D0-FF05-4490-AE18-074132110BB7}</c15:txfldGUID>
                       <c15:f>calcs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6932,7 +6935,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3CA704DA-4884-4959-AC0A-F6ADA9DC223A}</c15:txfldGUID>
+                      <c15:txfldGUID>{EA562F31-763E-42A1-AA60-EB82C538A7C1}</c15:txfldGUID>
                       <c15:f>calcs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6972,7 +6975,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{60E5CD5C-AE59-4784-9530-9FE80D6FAE8E}</c15:txfldGUID>
+                      <c15:txfldGUID>{0752CCF9-76BE-4AD5-9FA3-91505F6F41CE}</c15:txfldGUID>
                       <c15:f>calcs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7012,7 +7015,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A51C1952-4409-4290-9D8C-B24C8C7BD50A}</c15:txfldGUID>
+                      <c15:txfldGUID>{A84A7EF5-9E54-44F1-B920-1A0541DB1CB0}</c15:txfldGUID>
                       <c15:f>calcs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7052,7 +7055,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C7EFAD7E-A7DD-4597-B921-86E793B86770}</c15:txfldGUID>
+                      <c15:txfldGUID>{AA11B0A1-50EA-44B0-96EE-FAB3A5D2CA30}</c15:txfldGUID>
                       <c15:f>calcs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7092,7 +7095,7 @@
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{483A5C70-2B40-4DFE-864D-6617D51D48C4}</c15:txfldGUID>
+                      <c15:txfldGUID>{B3A4C70C-224D-41E2-8B29-E5EB110041AB}</c15:txfldGUID>
                       <c15:f>calcs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7512,11 +7515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1694364576"/>
-        <c:axId val="1694361856"/>
+        <c:axId val="-1619883104"/>
+        <c:axId val="-1619878208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1694364576"/>
+        <c:axId val="-1619883104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7539,14 +7542,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1694361856"/>
+        <c:crossAx val="-1619878208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1694361856"/>
+        <c:axId val="-1619878208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7558,7 +7561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1694364576"/>
+        <c:crossAx val="-1619883104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7616,7 +7619,7 @@
         <xdr:cNvPr id="7" name="TimelineChart" descr="Scrollable timeline of project activities">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7652,7 +7655,7 @@
         <xdr:cNvPr id="5" name="Group 4" descr="Scroll bar">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7662,8 +7665,8 @@
         <a:xfrm>
           <a:off x="325877" y="4038600"/>
           <a:ext cx="8988869" cy="228436"/>
-          <a:chOff x="306828" y="4108028"/>
-          <a:chExt cx="8729080" cy="223566"/>
+          <a:chOff x="306828" y="4108026"/>
+          <a:chExt cx="8729080" cy="223568"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -7671,7 +7674,7 @@
           <xdr:cNvPr id="2" name="Rectangle 1" descr="Rectangle">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7729,7 +7732,7 @@
                     <a14:compatExt spid="_x0000_s1025"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7737,7 +7740,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="306828" y="4108028"/>
+                <a:off x="306828" y="4108026"/>
                 <a:ext cx="8729080" cy="163196"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8021,8 +8024,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8143,8 +8146,12 @@
         <f>ROW(B9)-calcs!$D$5</f>
         <v>-3</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" s="7"/>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43183</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
@@ -8304,7 +8311,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43175</v>
+        <v>43184</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -11431,9 +11438,9 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="AA56">
+      <c r="AA56" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="AB56" t="e">
         <f t="shared" ca="1" si="16"/>
